--- a/DOC/word_form.xlsx
+++ b/DOC/word_form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AF231E-C437-4409-A61A-22AE6AAA45E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6B4A5-8CBB-4604-B3BD-78D74949E2AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Derivation" sheetId="7" r:id="rId7"/>
     <sheet name="Numbers" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Inflection</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,116 @@
   </si>
   <si>
     <t>Explaination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inflection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>لعب</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ألعب</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original/Expected Form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tense: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>المضارع</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  subject: I, regular</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>جرى</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>أجري</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tense: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>المضارع</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  subject: I, irregular</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is an adjective example from the Russian report.
+тихая (tihaya) – calm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(adjective, feminine, singular)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+You can write your "Explanation" afte each word inflection like the red words.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +165,28 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -87,13 +219,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,14 +507,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="A6:E14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:N2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -449,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5FEE31-CDBC-4356-AD59-8DFFBADB8830}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -460,28 +736,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
